--- a/Data_ttcs/code/data/dataHNAM.xlsx
+++ b/Data_ttcs/code/data/dataHNAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duymanh/Documents/Data_ttcs_akabot/Data_ttcs/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C5EBCB-4A5E-1F4D-935D-A49B2C928593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F242C-4BDE-4949-B2FE-9216B1ECDA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73130D6E-4F7A-4AEE-92C9-3C9EA021DA6F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="346">
   <si>
     <t>Samsung Galaxy Z Fold3 5G F926 512GB Ram 12GB</t>
   </si>
@@ -1056,14 +1056,37 @@
   </si>
   <si>
     <t>190.000đ</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price_selloff</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>ratings</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1091,8 +1114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,15 +1431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799761BB-A282-4B1B-93F6-C19FC0632D06}">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="58.6640625" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
@@ -1424,33 +1448,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+        <v>341</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>343</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>344</v>
       </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>278</v>
@@ -1458,16 +1482,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>278</v>
@@ -1475,16 +1499,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>278</v>
@@ -1492,10 +1516,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -1506,13 +1533,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -1523,16 +1547,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>278</v>
@@ -1540,16 +1564,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>278</v>
@@ -1557,16 +1581,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>278</v>
@@ -1574,16 +1598,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>278</v>
@@ -1591,16 +1615,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>278</v>
@@ -1608,16 +1632,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>278</v>
@@ -1625,16 +1649,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>278</v>
@@ -1642,16 +1666,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>278</v>
@@ -1659,16 +1683,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
         <v>278</v>
@@ -1676,16 +1700,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
         <v>278</v>
@@ -1693,16 +1717,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>278</v>
@@ -1710,13 +1734,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -1727,13 +1751,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1744,13 +1768,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -1761,16 +1785,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
         <v>278</v>
@@ -1778,16 +1802,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
         <v>278</v>
@@ -1795,16 +1819,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
         <v>278</v>
@@ -1812,16 +1836,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
         <v>278</v>
@@ -1829,16 +1853,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
         <v>278</v>
@@ -1846,13 +1870,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -1863,13 +1887,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -1880,13 +1904,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -1897,16 +1921,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
         <v>278</v>
@@ -1914,16 +1938,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
         <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
         <v>278</v>
@@ -1931,16 +1955,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
         <v>278</v>
@@ -1948,10 +1972,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
         <v>77</v>
@@ -1965,16 +1989,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
         <v>278</v>
@@ -1982,16 +2006,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>278</v>
@@ -1999,10 +2023,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
       </c>
       <c r="E35" t="s">
         <v>278</v>
@@ -2010,16 +2040,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
         <v>278</v>
@@ -2027,13 +2051,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
         <v>278</v>
@@ -2041,16 +2068,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
         <v>278</v>
@@ -2058,13 +2082,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
@@ -2075,13 +2099,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -2092,10 +2116,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
       </c>
       <c r="E41" t="s">
         <v>278</v>
@@ -2103,10 +2133,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>278</v>
@@ -2114,16 +2144,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
         <v>278</v>
@@ -2131,13 +2155,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -2148,13 +2172,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -2165,10 +2189,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
       </c>
       <c r="E46" t="s">
         <v>278</v>
@@ -2176,13 +2206,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
         <v>278</v>
@@ -2190,16 +2217,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
         <v>278</v>
@@ -2207,13 +2231,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -2224,16 +2248,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
         <v>278</v>
@@ -2241,16 +2265,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
         <v>278</v>
@@ -2258,7 +2282,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
@@ -2267,7 +2291,7 @@
         <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
         <v>278</v>
@@ -2275,24 +2299,30 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
         <v>134</v>
       </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
       <c r="E53" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
+        <v>134</v>
       </c>
       <c r="E54" t="s">
         <v>278</v>
@@ -2300,10 +2330,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
         <v>278</v>
@@ -2311,13 +2341,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
         <v>278</v>
@@ -2325,33 +2352,30 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
         <v>144</v>
       </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
       <c r="E57" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E58" t="s">
         <v>278</v>
@@ -2359,13 +2383,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="D59" t="s">
+        <v>28</v>
       </c>
       <c r="E59" t="s">
         <v>278</v>
@@ -2373,33 +2400,30 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
         <v>152</v>
       </c>
-      <c r="D60" t="s">
-        <v>90</v>
-      </c>
       <c r="E60" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="E61" t="s">
         <v>278</v>
@@ -2407,16 +2431,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
         <v>278</v>
@@ -2424,13 +2448,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
       </c>
       <c r="E63" t="s">
         <v>278</v>
@@ -2438,16 +2465,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
         <v>278</v>
@@ -2455,13 +2479,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
       </c>
       <c r="E65" t="s">
         <v>278</v>
@@ -2469,16 +2496,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="E66" t="s">
         <v>278</v>
@@ -2486,16 +2510,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
         <v>171</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
         <v>278</v>
@@ -2503,16 +2527,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E68" t="s">
         <v>278</v>
@@ -2520,10 +2544,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
         <v>176</v>
@@ -2537,10 +2561,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="C70" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
       </c>
       <c r="E70" t="s">
         <v>278</v>
@@ -2548,16 +2578,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
-      </c>
-      <c r="C71" t="s">
-        <v>183</v>
-      </c>
-      <c r="D71" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
         <v>278</v>
@@ -2565,16 +2589,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
         <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E72" t="s">
         <v>278</v>
@@ -2582,13 +2606,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
       </c>
       <c r="E73" t="s">
         <v>278</v>
@@ -2596,47 +2623,44 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
         <v>188</v>
       </c>
-      <c r="D74" t="s">
-        <v>6</v>
-      </c>
       <c r="E74" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B75" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
         <v>188</v>
       </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
       <c r="E75" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
-      </c>
-      <c r="D76" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="E76" t="s">
         <v>278</v>
@@ -2644,16 +2668,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C77" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
         <v>278</v>
@@ -2661,13 +2685,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="C78" t="s">
+        <v>198</v>
       </c>
       <c r="D78" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E78" t="s">
         <v>278</v>
@@ -2675,13 +2702,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
-      </c>
-      <c r="C79" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
       </c>
       <c r="E79" t="s">
         <v>278</v>
@@ -2689,16 +2716,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="E80" t="s">
         <v>278</v>
@@ -2706,13 +2730,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
       </c>
       <c r="E81" t="s">
         <v>278</v>
@@ -2720,13 +2747,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E82" t="s">
         <v>278</v>
@@ -2734,10 +2761,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C83" t="s">
         <v>203</v>
@@ -2748,13 +2775,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E84" t="s">
         <v>278</v>
@@ -2762,16 +2789,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
-      </c>
-      <c r="D85" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="E85" t="s">
         <v>278</v>
@@ -2779,30 +2803,30 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C86" t="s">
         <v>219</v>
       </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
       <c r="E86" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B87" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
-        <v>224</v>
-      </c>
-      <c r="D87" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="E87" t="s">
         <v>278</v>
@@ -2810,13 +2834,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B88" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
       </c>
       <c r="E88" t="s">
         <v>278</v>
@@ -2824,10 +2851,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>226</v>
+      </c>
+      <c r="C89" t="s">
+        <v>227</v>
       </c>
       <c r="E89" t="s">
         <v>278</v>
@@ -2835,13 +2865,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
-      </c>
-      <c r="D90" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E90" t="s">
         <v>278</v>
@@ -2849,10 +2876,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B91" t="s">
-        <v>231</v>
+        <v>79</v>
+      </c>
+      <c r="D91" t="s">
+        <v>90</v>
       </c>
       <c r="E91" t="s">
         <v>278</v>
@@ -2860,10 +2890,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B92" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E92" t="s">
         <v>278</v>
@@ -2871,16 +2901,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
-      </c>
-      <c r="C93" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" t="s">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="E93" t="s">
         <v>278</v>
@@ -2888,13 +2912,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E94" t="s">
         <v>278</v>
@@ -2902,16 +2929,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
-      </c>
-      <c r="C95" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="D95" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
         <v>278</v>
@@ -2919,16 +2943,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="B96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
         <v>278</v>
@@ -2936,16 +2960,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>241</v>
+        <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
         <v>278</v>
@@ -2953,16 +2977,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C98" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E98" t="s">
         <v>278</v>
@@ -2970,13 +2994,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B99" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="C99" t="s">
+        <v>245</v>
       </c>
       <c r="D99" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E99" t="s">
         <v>278</v>
@@ -2984,13 +3011,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
         <v>278</v>
@@ -2998,16 +3025,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B101" t="s">
-        <v>251</v>
-      </c>
-      <c r="C101" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E101" t="s">
         <v>278</v>
@@ -3015,10 +3039,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B102" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="C102" t="s">
+        <v>35</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
@@ -3029,16 +3056,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="D103" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
         <v>278</v>
@@ -3046,13 +3070,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E104" t="s">
         <v>278</v>
@@ -3060,27 +3087,24 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B105" t="s">
         <v>67</v>
       </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
       <c r="E105" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
-      </c>
-      <c r="C106" t="s">
-        <v>54</v>
-      </c>
-      <c r="D106" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="E106" t="s">
         <v>278</v>
@@ -3088,16 +3112,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B107" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="D107" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E107" t="s">
         <v>278</v>
@@ -3105,13 +3129,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B108" t="s">
-        <v>263</v>
+        <v>260</v>
+      </c>
+      <c r="C108" t="s">
+        <v>261</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E108" t="s">
         <v>278</v>
@@ -3119,27 +3146,24 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B109" t="s">
         <v>263</v>
       </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
       <c r="E109" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B110" t="s">
-        <v>89</v>
-      </c>
-      <c r="C110" t="s">
-        <v>47</v>
-      </c>
-      <c r="D110" t="s">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="E110" t="s">
         <v>278</v>
@@ -3147,10 +3171,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="C111" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
       </c>
       <c r="E111" t="s">
         <v>278</v>
@@ -3158,24 +3188,24 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B112" t="s">
         <v>104</v>
       </c>
-      <c r="C112" t="s">
-        <v>111</v>
-      </c>
       <c r="E112" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="C113" t="s">
+        <v>111</v>
       </c>
       <c r="E113" t="s">
         <v>278</v>
@@ -3183,13 +3213,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B114" t="s">
-        <v>103</v>
-      </c>
-      <c r="C114" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E114" t="s">
         <v>278</v>
@@ -3197,16 +3224,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>103</v>
       </c>
       <c r="C115" t="s">
-        <v>272</v>
-      </c>
-      <c r="D115" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E115" t="s">
         <v>278</v>
@@ -3214,58 +3238,58 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B116" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="C116" t="s">
+        <v>272</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B117" t="s">
-        <v>277</v>
-      </c>
-      <c r="C117" t="s">
-        <v>114</v>
-      </c>
-      <c r="D117" t="s">
-        <v>6</v>
+        <v>274</v>
       </c>
       <c r="E117" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="C118" t="s">
+        <v>114</v>
       </c>
       <c r="D118" t="s">
         <v>6</v>
       </c>
       <c r="E118" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B119" t="s">
-        <v>282</v>
-      </c>
-      <c r="C119" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E119" t="s">
         <v>275</v>
@@ -3273,13 +3297,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C120" t="s">
-        <v>286</v>
+        <v>283</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
       </c>
       <c r="E120" t="s">
         <v>275</v>
@@ -3287,30 +3314,30 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C121" t="s">
         <v>286</v>
       </c>
-      <c r="D121" t="s">
-        <v>25</v>
-      </c>
       <c r="E121" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B122" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C122" t="s">
-        <v>128</v>
+        <v>286</v>
+      </c>
+      <c r="D122" t="s">
+        <v>25</v>
       </c>
       <c r="E122" t="s">
         <v>275</v>
@@ -3318,94 +3345,94 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B123" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C123" t="s">
-        <v>293</v>
-      </c>
-      <c r="D123" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="E123" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>292</v>
+      </c>
+      <c r="C124" t="s">
+        <v>293</v>
+      </c>
+      <c r="D124" t="s">
+        <v>25</v>
       </c>
       <c r="E124" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B125" t="s">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="E125" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B126" t="s">
-        <v>298</v>
-      </c>
-      <c r="C126" t="s">
-        <v>299</v>
-      </c>
-      <c r="D126" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E126" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B127" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C127" t="s">
-        <v>157</v>
+        <v>299</v>
+      </c>
+      <c r="D127" t="s">
+        <v>300</v>
       </c>
       <c r="E127" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>302</v>
+      </c>
+      <c r="C128" t="s">
+        <v>157</v>
       </c>
       <c r="E128" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B129" t="s">
-        <v>307</v>
-      </c>
-      <c r="C129" t="s">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="E129" t="s">
         <v>275</v>
@@ -3413,16 +3440,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>307</v>
       </c>
       <c r="C130" t="s">
-        <v>176</v>
-      </c>
-      <c r="D130" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="E130" t="s">
         <v>275</v>
@@ -3430,13 +3454,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B131" t="s">
         <v>178</v>
       </c>
       <c r="C131" t="s">
-        <v>299</v>
+        <v>176</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
       </c>
       <c r="E131" t="s">
         <v>275</v>
@@ -3444,13 +3471,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+      <c r="B132" t="s">
+        <v>178</v>
       </c>
       <c r="C132" t="s">
-        <v>171</v>
-      </c>
-      <c r="D132" t="s">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="E132" t="s">
         <v>275</v>
@@ -3458,16 +3485,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>311</v>
-      </c>
-      <c r="B133" t="s">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="C133" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E133" t="s">
         <v>275</v>
@@ -3475,10 +3499,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B134" t="s">
-        <v>313</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
         <v>183</v>
@@ -3492,13 +3516,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B135" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C135" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D135" t="s">
         <v>6</v>
@@ -3509,13 +3533,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B136" t="s">
         <v>315</v>
       </c>
       <c r="C136" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D136" t="s">
         <v>6</v>
@@ -3526,10 +3550,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B137" t="s">
-        <v>318</v>
+        <v>315</v>
+      </c>
+      <c r="C137" t="s">
+        <v>183</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
       </c>
       <c r="E137" t="s">
         <v>275</v>
@@ -3537,13 +3567,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B138" t="s">
-        <v>320</v>
-      </c>
-      <c r="C138" t="s">
-        <v>195</v>
+        <v>318</v>
       </c>
       <c r="E138" t="s">
         <v>275</v>
@@ -3551,13 +3578,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B139" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C139" t="s">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="E139" t="s">
         <v>275</v>
@@ -3565,13 +3592,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B140" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C140" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E140" t="s">
         <v>275</v>
@@ -3579,10 +3606,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B141" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="C141" t="s">
+        <v>326</v>
       </c>
       <c r="E141" t="s">
         <v>275</v>
@@ -3590,10 +3620,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B142" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E142" t="s">
         <v>275</v>
@@ -3601,10 +3631,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B143" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E143" t="s">
         <v>275</v>
@@ -3612,13 +3642,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B144" t="s">
-        <v>334</v>
-      </c>
-      <c r="C144" t="s">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="E144" t="s">
         <v>275</v>
@@ -3626,10 +3653,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B145" t="s">
-        <v>336</v>
+        <v>334</v>
+      </c>
+      <c r="C145" t="s">
+        <v>223</v>
       </c>
       <c r="E145" t="s">
         <v>275</v>
@@ -3637,10 +3667,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B146" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E146" t="s">
         <v>275</v>
@@ -3648,12 +3678,23 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>337</v>
+      </c>
+      <c r="B147" t="s">
+        <v>338</v>
+      </c>
+      <c r="E147" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>339</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>340</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E148" t="s">
         <v>275</v>
       </c>
     </row>
